--- a/server/files/template.xlsx
+++ b/server/files/template.xlsx
@@ -71,7 +71,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -115,6 +115,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -122,7 +123,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -139,6 +139,23 @@
     <font>
       <b val="true"/>
       <i val="true"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <u val="single"/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -187,25 +204,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -216,16 +233,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -237,6 +254,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -257,13 +282,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.94"/>
@@ -295,7 +320,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -313,7 +338,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -329,21 +354,21 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="2"/>
@@ -351,14 +376,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
@@ -398,6 +423,9 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -435,10 +463,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.94"/>
@@ -470,7 +498,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -488,7 +516,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -504,21 +532,21 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="2"/>
@@ -526,14 +554,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
@@ -593,11 +621,11 @@
     <mergeCell ref="A7:L7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;12Página &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -610,10 +638,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.94"/>
@@ -645,7 +673,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -663,7 +691,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -679,21 +707,21 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="2"/>
@@ -701,14 +729,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
@@ -768,11 +796,11 @@
     <mergeCell ref="A7:L7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;12Página &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -785,10 +813,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.94"/>
@@ -820,7 +848,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -838,7 +866,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -854,21 +882,21 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="2"/>
@@ -876,14 +904,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
@@ -911,18 +939,18 @@
       <c r="L6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -943,11 +971,11 @@
     <mergeCell ref="A7:L7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;12Página &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -960,10 +988,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.94"/>
@@ -995,7 +1023,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1013,7 +1041,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1029,21 +1057,21 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="2"/>
@@ -1051,14 +1079,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1118,11 +1146,11 @@
     <mergeCell ref="A7:L7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;12Página &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -1135,10 +1163,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.94"/>
@@ -1170,7 +1198,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1188,7 +1216,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1204,21 +1232,21 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="2"/>
@@ -1226,14 +1254,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1293,11 +1321,11 @@
     <mergeCell ref="A7:L7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;12Página &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -1310,10 +1338,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.94"/>
@@ -1345,7 +1373,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1363,7 +1391,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1379,21 +1407,21 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="2"/>
@@ -1401,14 +1429,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1468,11 +1496,11 @@
     <mergeCell ref="A7:L7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;12Página &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -1485,10 +1513,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.94"/>
@@ -1520,7 +1548,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1538,7 +1566,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1554,21 +1582,21 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="2"/>
@@ -1576,14 +1604,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1643,11 +1671,11 @@
     <mergeCell ref="A7:L7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;12Página &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -1660,10 +1688,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.94"/>
@@ -1695,7 +1723,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1713,7 +1741,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1729,21 +1757,21 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="2"/>
@@ -1751,14 +1779,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1818,11 +1846,11 @@
     <mergeCell ref="A7:L7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;12Página &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -1835,10 +1863,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.94"/>
@@ -1870,7 +1898,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1888,7 +1916,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1904,21 +1932,21 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="2"/>
@@ -1926,14 +1954,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1993,11 +2021,11 @@
     <mergeCell ref="A7:L7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;12Página &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -2010,10 +2038,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.94"/>
@@ -2045,7 +2073,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2063,7 +2091,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2079,21 +2107,21 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="2"/>
@@ -2101,14 +2129,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2168,11 +2196,11 @@
     <mergeCell ref="A7:L7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;12Página &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -2185,10 +2213,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.94"/>
@@ -2220,7 +2248,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2238,7 +2266,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2254,21 +2282,21 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="2"/>
@@ -2276,14 +2304,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2343,11 +2371,11 @@
     <mergeCell ref="A7:L7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;12Página &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>